--- a/v1data.xlsx
+++ b/v1data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="v1data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -628,7 +628,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Speedup</a:t>
+              <a:t>Speedup BASS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1775,11 +1775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556706000"/>
-        <c:axId val="556706392"/>
+        <c:axId val="124371320"/>
+        <c:axId val="124371712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556706000"/>
+        <c:axId val="124371320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -1885,14 +1885,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556706392"/>
+        <c:crossAx val="124371712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556706392"/>
+        <c:axId val="124371712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +1991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556706000"/>
+        <c:crossAx val="124371320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2107,7 +2107,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sorting Performance</a:t>
+              <a:t>Sorting Performance BASS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3076,11 +3076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562878112"/>
-        <c:axId val="562880072"/>
+        <c:axId val="124372104"/>
+        <c:axId val="171278384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562878112"/>
+        <c:axId val="124372104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3181,14 +3181,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562880072"/>
+        <c:crossAx val="171278384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562880072"/>
+        <c:axId val="171278384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -3293,7 +3293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562878112"/>
+        <c:crossAx val="124372104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4818,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q152" sqref="Q152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7026,11 +7026,11 @@
         <v>4.1096543461031426E-3</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97:N97" si="0">AVERAGE(E2:E11)</f>
+        <f t="shared" ref="E97" si="0">AVERAGE(E2:E11)</f>
         <v>7.3962154</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97:N97" si="1">STDEV(E2:E11)</f>
+        <f t="shared" ref="F97" si="1">STDEV(E2:E11)</f>
         <v>5.5588857017291493E-2</v>
       </c>
       <c r="G97">
@@ -7038,27 +7038,27 @@
         <v>15.326639499999999</v>
       </c>
       <c r="H97">
-        <f t="shared" ref="H97:N97" si="2">STDEV(G2:G11)</f>
+        <f t="shared" ref="H97" si="2">STDEV(G2:G11)</f>
         <v>7.5848624132031542E-2</v>
       </c>
       <c r="I97">
-        <f t="shared" ref="I97:N97" si="3">AVERAGE(I2:I11)</f>
+        <f t="shared" ref="I97" si="3">AVERAGE(I2:I11)</f>
         <v>23.572318899999999</v>
       </c>
       <c r="J97">
-        <f t="shared" ref="J97:N97" si="4">STDEV(I2:I11)</f>
+        <f t="shared" ref="J97" si="4">STDEV(I2:I11)</f>
         <v>0.12282625261224363</v>
       </c>
       <c r="K97">
-        <f t="shared" ref="K97:N97" si="5">AVERAGE(K2:K11)</f>
+        <f t="shared" ref="K97" si="5">AVERAGE(K2:K11)</f>
         <v>32.195704999999997</v>
       </c>
       <c r="L97">
-        <f t="shared" ref="L97:N97" si="6">STDEV(K2:K11)</f>
+        <f t="shared" ref="L97" si="6">STDEV(K2:K11)</f>
         <v>0.33069037140604168</v>
       </c>
       <c r="M97">
-        <f t="shared" ref="M97:N97" si="7">AVERAGE(M2:M11)</f>
+        <f t="shared" ref="M97" si="7">AVERAGE(M2:M11)</f>
         <v>40.660044199999994</v>
       </c>
       <c r="N97">
@@ -7079,39 +7079,39 @@
         <v>4.0376880568518975E-3</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:N98" si="9">AVERAGE(E12:E21)</f>
+        <f t="shared" ref="E98" si="9">AVERAGE(E12:E21)</f>
         <v>3.8071964999999999</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:N98" si="10">STDEV(E12:E21)</f>
+        <f t="shared" ref="F98" si="10">STDEV(E12:E21)</f>
         <v>2.8874123448936868E-2</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98:N98" si="11">AVERAGE(G12:G21)</f>
+        <f t="shared" ref="G98" si="11">AVERAGE(G12:G21)</f>
         <v>7.9437639000000004</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:N98" si="12">STDEV(G12:G21)</f>
+        <f t="shared" ref="H98" si="12">STDEV(G12:G21)</f>
         <v>7.7756814678771907E-2</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:N98" si="13">AVERAGE(I12:I21)</f>
+        <f t="shared" ref="I98" si="13">AVERAGE(I12:I21)</f>
         <v>12.187888300000001</v>
       </c>
       <c r="J98">
-        <f t="shared" ref="J98:N98" si="14">STDEV(I12:I21)</f>
+        <f t="shared" ref="J98" si="14">STDEV(I12:I21)</f>
         <v>9.67003693386604E-2</v>
       </c>
       <c r="K98">
-        <f t="shared" ref="K98:N98" si="15">AVERAGE(K12:K21)</f>
+        <f t="shared" ref="K98" si="15">AVERAGE(K12:K21)</f>
         <v>16.468991500000001</v>
       </c>
       <c r="L98">
-        <f t="shared" ref="L98:N98" si="16">STDEV(K12:K21)</f>
+        <f t="shared" ref="L98" si="16">STDEV(K12:K21)</f>
         <v>0.10597818018425567</v>
       </c>
       <c r="M98">
-        <f t="shared" ref="M98:N98" si="17">AVERAGE(M12:M21)</f>
+        <f t="shared" ref="M98" si="17">AVERAGE(M12:M21)</f>
         <v>20.789817199999998</v>
       </c>
       <c r="N98">
@@ -7132,39 +7132,39 @@
         <v>3.7879814560146823E-3</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:N99" si="19">AVERAGE(E22:E31)</f>
+        <f t="shared" ref="E99" si="19">AVERAGE(E22:E31)</f>
         <v>2.0847948000000001</v>
       </c>
       <c r="F99">
-        <f t="shared" ref="F99:N99" si="20">STDEV(E22:E31)</f>
+        <f t="shared" ref="F99" si="20">STDEV(E22:E31)</f>
         <v>5.2516428100166927E-2</v>
       </c>
       <c r="G99">
-        <f t="shared" ref="G99:N99" si="21">AVERAGE(G22:G31)</f>
+        <f t="shared" ref="G99" si="21">AVERAGE(G22:G31)</f>
         <v>4.3014506000000008</v>
       </c>
       <c r="H99">
-        <f t="shared" ref="H99:N99" si="22">STDEV(G22:G31)</f>
+        <f t="shared" ref="H99" si="22">STDEV(G22:G31)</f>
         <v>0.11529658798382159</v>
       </c>
       <c r="I99">
-        <f t="shared" ref="I99:N99" si="23">AVERAGE(I22:I31)</f>
+        <f t="shared" ref="I99" si="23">AVERAGE(I22:I31)</f>
         <v>6.6475814</v>
       </c>
       <c r="J99">
-        <f t="shared" ref="J99:N99" si="24">STDEV(I22:I31)</f>
+        <f t="shared" ref="J99" si="24">STDEV(I22:I31)</f>
         <v>0.17158428882505539</v>
       </c>
       <c r="K99">
-        <f t="shared" ref="K99:N99" si="25">AVERAGE(K22:K31)</f>
+        <f t="shared" ref="K99" si="25">AVERAGE(K22:K31)</f>
         <v>8.918705000000001</v>
       </c>
       <c r="L99">
-        <f t="shared" ref="L99:N99" si="26">STDEV(K22:K31)</f>
+        <f t="shared" ref="L99" si="26">STDEV(K22:K31)</f>
         <v>0.21072358243917541</v>
       </c>
       <c r="M99">
-        <f t="shared" ref="M99:N99" si="27">AVERAGE(M22:M31)</f>
+        <f t="shared" ref="M99" si="27">AVERAGE(M22:M31)</f>
         <v>11.193197399999999</v>
       </c>
       <c r="N99">
@@ -7185,39 +7185,39 @@
         <v>4.0750906261224559E-3</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100:N100" si="29">AVERAGE(E32:E41)</f>
+        <f t="shared" ref="E100" si="29">AVERAGE(E32:E41)</f>
         <v>1.3825617000000001</v>
       </c>
       <c r="F100">
-        <f t="shared" ref="F100:N100" si="30">STDEV(E32:E41)</f>
+        <f t="shared" ref="F100" si="30">STDEV(E32:E41)</f>
         <v>5.1686072424568859E-2</v>
       </c>
       <c r="G100">
-        <f t="shared" ref="G100:N100" si="31">AVERAGE(G32:G41)</f>
+        <f t="shared" ref="G100" si="31">AVERAGE(G32:G41)</f>
         <v>2.7980079</v>
       </c>
       <c r="H100">
-        <f t="shared" ref="H100:N100" si="32">STDEV(G32:G41)</f>
+        <f t="shared" ref="H100" si="32">STDEV(G32:G41)</f>
         <v>0.1893406426185649</v>
       </c>
       <c r="I100">
-        <f t="shared" ref="I100:N100" si="33">AVERAGE(I32:I41)</f>
+        <f t="shared" ref="I100" si="33">AVERAGE(I32:I41)</f>
         <v>4.1949791999999997</v>
       </c>
       <c r="J100">
-        <f t="shared" ref="J100:N100" si="34">STDEV(I32:I41)</f>
+        <f t="shared" ref="J100" si="34">STDEV(I32:I41)</f>
         <v>0.26465041871235012</v>
       </c>
       <c r="K100">
-        <f t="shared" ref="K100:N100" si="35">AVERAGE(K32:K41)</f>
+        <f t="shared" ref="K100" si="35">AVERAGE(K32:K41)</f>
         <v>5.6116008000000006</v>
       </c>
       <c r="L100">
-        <f t="shared" ref="L100:N100" si="36">STDEV(K32:K41)</f>
+        <f t="shared" ref="L100" si="36">STDEV(K32:K41)</f>
         <v>0.24837210789762837</v>
       </c>
       <c r="M100">
-        <f t="shared" ref="M100:N100" si="37">AVERAGE(M32:M41)</f>
+        <f t="shared" ref="M100" si="37">AVERAGE(M32:M41)</f>
         <v>6.9939283000000003</v>
       </c>
       <c r="N100">
@@ -7238,39 +7238,39 @@
         <v>7.878979527832267E-3</v>
       </c>
       <c r="E101">
-        <f t="shared" ref="E101:N101" si="39">AVERAGE(E42:E51)</f>
+        <f t="shared" ref="E101" si="39">AVERAGE(E42:E51)</f>
         <v>1.2824145999999998</v>
       </c>
       <c r="F101">
-        <f t="shared" ref="F101:N101" si="40">STDEV(E42:E51)</f>
+        <f t="shared" ref="F101" si="40">STDEV(E42:E51)</f>
         <v>7.0967896837936556E-2</v>
       </c>
       <c r="G101">
-        <f t="shared" ref="G101:N101" si="41">AVERAGE(G42:G51)</f>
+        <f t="shared" ref="G101" si="41">AVERAGE(G42:G51)</f>
         <v>2.4992826999999997</v>
       </c>
       <c r="H101">
-        <f t="shared" ref="H101:N101" si="42">STDEV(G42:G51)</f>
+        <f t="shared" ref="H101" si="42">STDEV(G42:G51)</f>
         <v>0.1149037750661637</v>
       </c>
       <c r="I101">
-        <f t="shared" ref="I101:N101" si="43">AVERAGE(I42:I51)</f>
+        <f t="shared" ref="I101" si="43">AVERAGE(I42:I51)</f>
         <v>3.7984955999999999</v>
       </c>
       <c r="J101">
-        <f t="shared" ref="J101:N101" si="44">STDEV(I42:I51)</f>
+        <f t="shared" ref="J101" si="44">STDEV(I42:I51)</f>
         <v>0.297115636776211</v>
       </c>
       <c r="K101">
-        <f t="shared" ref="K101:N101" si="45">AVERAGE(K42:K51)</f>
+        <f t="shared" ref="K101" si="45">AVERAGE(K42:K51)</f>
         <v>5.1653969000000002</v>
       </c>
       <c r="L101">
-        <f t="shared" ref="L101:N101" si="46">STDEV(K42:K51)</f>
+        <f t="shared" ref="L101" si="46">STDEV(K42:K51)</f>
         <v>0.309731834460231</v>
       </c>
       <c r="M101">
-        <f t="shared" ref="M101:N101" si="47">AVERAGE(M42:M51)</f>
+        <f t="shared" ref="M101" si="47">AVERAGE(M42:M51)</f>
         <v>6.2177609</v>
       </c>
       <c r="N101">
@@ -7291,39 +7291,39 @@
         <v>4.6111298506981988E-3</v>
       </c>
       <c r="E102">
-        <f t="shared" ref="E102:N102" si="49">AVERAGE(E52:E61)</f>
+        <f t="shared" ref="E102" si="49">AVERAGE(E52:E61)</f>
         <v>1.1857276000000001</v>
       </c>
       <c r="F102">
-        <f t="shared" ref="F102:N102" si="50">STDEV(E52:E61)</f>
+        <f t="shared" ref="F102" si="50">STDEV(E52:E61)</f>
         <v>6.3790327273027858E-2</v>
       </c>
       <c r="G102">
-        <f t="shared" ref="G102:N102" si="51">AVERAGE(G52:G61)</f>
+        <f t="shared" ref="G102" si="51">AVERAGE(G52:G61)</f>
         <v>2.3010037999999997</v>
       </c>
       <c r="H102">
-        <f t="shared" ref="H102:N102" si="52">STDEV(G52:G61)</f>
+        <f t="shared" ref="H102" si="52">STDEV(G52:G61)</f>
         <v>0.14186499617500198</v>
       </c>
       <c r="I102">
-        <f t="shared" ref="I102:N102" si="53">AVERAGE(I52:I61)</f>
+        <f t="shared" ref="I102" si="53">AVERAGE(I52:I61)</f>
         <v>3.5967411999999994</v>
       </c>
       <c r="J102">
-        <f t="shared" ref="J102:N102" si="54">STDEV(I52:I61)</f>
+        <f t="shared" ref="J102" si="54">STDEV(I52:I61)</f>
         <v>0.27581996543832732</v>
       </c>
       <c r="K102">
-        <f t="shared" ref="K102:N102" si="55">AVERAGE(K52:K61)</f>
+        <f t="shared" ref="K102" si="55">AVERAGE(K52:K61)</f>
         <v>5.0434229000000004</v>
       </c>
       <c r="L102">
-        <f t="shared" ref="L102:N102" si="56">STDEV(K52:K61)</f>
+        <f t="shared" ref="L102" si="56">STDEV(K52:K61)</f>
         <v>0.37162282743796682</v>
       </c>
       <c r="M102">
-        <f t="shared" ref="M102:N102" si="57">AVERAGE(M52:M61)</f>
+        <f t="shared" ref="M102" si="57">AVERAGE(M52:M61)</f>
         <v>5.9022461999999996</v>
       </c>
       <c r="N102">
@@ -7344,39 +7344,39 @@
         <v>3.9559059869741292E-3</v>
       </c>
       <c r="E103">
-        <f t="shared" ref="E103:N103" si="59">AVERAGE(E62:E71)</f>
+        <f t="shared" ref="E103" si="59">AVERAGE(E62:E71)</f>
         <v>1.1537107</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103:N103" si="60">STDEV(E62:E71)</f>
+        <f t="shared" ref="F103" si="60">STDEV(E62:E71)</f>
         <v>8.492173466073856E-2</v>
       </c>
       <c r="G103">
-        <f t="shared" ref="G103:N103" si="61">AVERAGE(G62:G71)</f>
+        <f t="shared" ref="G103" si="61">AVERAGE(G62:G71)</f>
         <v>2.3225664999999998</v>
       </c>
       <c r="H103">
-        <f t="shared" ref="H103:N103" si="62">STDEV(G62:G71)</f>
+        <f t="shared" ref="H103" si="62">STDEV(G62:G71)</f>
         <v>0.18546982345399357</v>
       </c>
       <c r="I103">
-        <f t="shared" ref="I103:N103" si="63">AVERAGE(I62:I71)</f>
+        <f t="shared" ref="I103" si="63">AVERAGE(I62:I71)</f>
         <v>3.4672393000000001</v>
       </c>
       <c r="J103">
-        <f t="shared" ref="J103:N103" si="64">STDEV(I62:I71)</f>
+        <f t="shared" ref="J103" si="64">STDEV(I62:I71)</f>
         <v>0.35702164248965501</v>
       </c>
       <c r="K103">
-        <f t="shared" ref="K103:N103" si="65">AVERAGE(K62:K71)</f>
+        <f t="shared" ref="K103" si="65">AVERAGE(K62:K71)</f>
         <v>4.6361584000000002</v>
       </c>
       <c r="L103">
-        <f t="shared" ref="L103:N103" si="66">STDEV(K62:K71)</f>
+        <f t="shared" ref="L103" si="66">STDEV(K62:K71)</f>
         <v>0.46205815075166079</v>
       </c>
       <c r="M103">
-        <f t="shared" ref="M103:N103" si="67">AVERAGE(M62:M71)</f>
+        <f t="shared" ref="M103" si="67">AVERAGE(M62:M71)</f>
         <v>5.8444998999999997</v>
       </c>
       <c r="N103">
@@ -7397,39 +7397,39 @@
         <v>6.4745781029431661E-3</v>
       </c>
       <c r="E104">
-        <f t="shared" ref="E104:N104" si="69">AVERAGE(E81:E90)</f>
+        <f t="shared" ref="E104" si="69">AVERAGE(E81:E90)</f>
         <v>1.1044760999999998</v>
       </c>
       <c r="F104">
-        <f t="shared" ref="F104:N104" si="70">STDEV(E81:E90)</f>
+        <f t="shared" ref="F104" si="70">STDEV(E81:E90)</f>
         <v>0.15416610996544511</v>
       </c>
       <c r="G104">
-        <f t="shared" ref="G104:N104" si="71">AVERAGE(G81:G90)</f>
+        <f t="shared" ref="G104" si="71">AVERAGE(G81:G90)</f>
         <v>2.2201336</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:N104" si="72">STDEV(G81:G90)</f>
+        <f t="shared" ref="H104" si="72">STDEV(G81:G90)</f>
         <v>0.21665363392557152</v>
       </c>
       <c r="I104">
-        <f t="shared" ref="I104:N104" si="73">AVERAGE(I81:I90)</f>
+        <f t="shared" ref="I104" si="73">AVERAGE(I81:I90)</f>
         <v>3.2456583999999999</v>
       </c>
       <c r="J104">
-        <f t="shared" ref="J104:N104" si="74">STDEV(I81:I90)</f>
+        <f t="shared" ref="J104" si="74">STDEV(I81:I90)</f>
         <v>0.24981201668774861</v>
       </c>
       <c r="K104">
-        <f t="shared" ref="K104:N104" si="75">AVERAGE(K81:K90)</f>
+        <f t="shared" ref="K104" si="75">AVERAGE(K81:K90)</f>
         <v>4.4869017999999992</v>
       </c>
       <c r="L104">
-        <f t="shared" ref="L104:N104" si="76">STDEV(K81:K90)</f>
+        <f t="shared" ref="L104" si="76">STDEV(K81:K90)</f>
         <v>0.44184698681526996</v>
       </c>
       <c r="M104">
-        <f t="shared" ref="M104:N104" si="77">AVERAGE(M81:M90)</f>
+        <f t="shared" ref="M104" si="77">AVERAGE(M81:M90)</f>
         <v>5.6253520000000004</v>
       </c>
       <c r="N104">
@@ -7450,39 +7450,39 @@
         <v>4.5099817553215594E-3</v>
       </c>
       <c r="E105">
-        <f t="shared" ref="E105:N105" si="79">AVERAGE(E73:E82)</f>
+        <f t="shared" ref="E105" si="79">AVERAGE(E73:E82)</f>
         <v>1.0868046999999998</v>
       </c>
       <c r="F105">
-        <f t="shared" ref="F105:N105" si="80">STDEV(E73:E82)</f>
+        <f t="shared" ref="F105" si="80">STDEV(E73:E82)</f>
         <v>8.2028990569120677E-2</v>
       </c>
       <c r="G105">
-        <f t="shared" ref="G105:N105" si="81">AVERAGE(G73:G82)</f>
+        <f t="shared" ref="G105" si="81">AVERAGE(G73:G82)</f>
         <v>2.2282639000000004</v>
       </c>
       <c r="H105">
-        <f t="shared" ref="H105:N105" si="82">STDEV(G73:G82)</f>
+        <f t="shared" ref="H105" si="82">STDEV(G73:G82)</f>
         <v>0.20441160211932419</v>
       </c>
       <c r="I105">
-        <f t="shared" ref="I105:N105" si="83">AVERAGE(I73:I82)</f>
+        <f t="shared" ref="I105" si="83">AVERAGE(I73:I82)</f>
         <v>3.4405220000000005</v>
       </c>
       <c r="J105">
-        <f t="shared" ref="J105:N105" si="84">STDEV(I73:I82)</f>
+        <f t="shared" ref="J105" si="84">STDEV(I73:I82)</f>
         <v>0.27375403207705357</v>
       </c>
       <c r="K105">
-        <f t="shared" ref="K105:N105" si="85">AVERAGE(K73:K82)</f>
+        <f t="shared" ref="K105" si="85">AVERAGE(K73:K82)</f>
         <v>4.4713560000000001</v>
       </c>
       <c r="L105">
-        <f t="shared" ref="L105:N105" si="86">STDEV(K73:K82)</f>
+        <f t="shared" ref="L105" si="86">STDEV(K73:K82)</f>
         <v>0.27203930994251557</v>
       </c>
       <c r="M105">
-        <f t="shared" ref="M105:N105" si="87">AVERAGE(M73:M82)</f>
+        <f t="shared" ref="M105" si="87">AVERAGE(M73:M82)</f>
         <v>5.5555497999999996</v>
       </c>
       <c r="N105">
@@ -7543,7 +7543,7 @@
         <v>1.8675235823382126</v>
       </c>
       <c r="D108">
-        <f>MAX(B119-C108,C108-C119)</f>
+        <f t="shared" ref="D108:D115" si="89">MAX(B119-C108,C108-C119)</f>
         <v>7.0612376161926393E-2</v>
       </c>
       <c r="E108">
@@ -7555,7 +7555,7 @@
         <v>2.9558733767145462E-2</v>
       </c>
       <c r="G108">
-        <f t="shared" ref="D108:K108" si="89">G$97/G98</f>
+        <f t="shared" ref="G108:K108" si="90">G$97/G98</f>
         <v>1.9293926270895334</v>
       </c>
       <c r="H108">
@@ -7563,7 +7563,7 @@
         <v>2.871495621974729E-2</v>
       </c>
       <c r="I108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1.9340773659699522</v>
       </c>
       <c r="J108">
@@ -7571,7 +7571,7 @@
         <v>2.5626286681504906E-2</v>
       </c>
       <c r="K108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1.9549287520125318</v>
       </c>
       <c r="L108">
@@ -7579,7 +7579,7 @@
         <v>3.2871094854078242E-2</v>
       </c>
       <c r="M108">
-        <f t="shared" ref="L108:N108" si="90">M$97/M98</f>
+        <f t="shared" ref="M108" si="91">M$97/M98</f>
         <v>1.9557672782231099</v>
       </c>
       <c r="N108">
@@ -7595,23 +7595,23 @@
         <v>4</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:K115" si="91">C$97/C99</f>
+        <f t="shared" ref="C109:K115" si="92">C$97/C99</f>
         <v>2.9644296020540599</v>
       </c>
       <c r="D109">
-        <f>MAX(B120-C109,C109-C120)</f>
+        <f t="shared" si="89"/>
         <v>0.14936496591345527</v>
       </c>
       <c r="E109">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.5476946699982173</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109:F115" si="92">MAX(E120-E109,E109-F120)</f>
+        <f t="shared" ref="F109:F115" si="93">MAX(E120-E109,E109-F120)</f>
         <v>0.11902951506070636</v>
       </c>
       <c r="G109">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.5631327487522455</v>
       </c>
       <c r="H109">
@@ -7619,27 +7619,27 @@
         <v>0.11625603625658032</v>
       </c>
       <c r="I109">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.5459992862968175</v>
       </c>
       <c r="J109">
-        <f t="shared" ref="J109:J115" si="93">MAX(K120-I109,I109-L120)</f>
+        <f t="shared" ref="J109:J115" si="94">MAX(K120-I109,I109-L120)</f>
         <v>0.11291913905640438</v>
       </c>
       <c r="K109">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.6099080527946596</v>
       </c>
       <c r="L109">
-        <f t="shared" ref="L109:L115" si="94">MAX(N120-K109,K109-O120)</f>
+        <f t="shared" ref="L109:L115" si="95">MAX(N120-K109,K109-O120)</f>
         <v>0.12533135708880128</v>
       </c>
       <c r="M109">
-        <f t="shared" ref="L109:N109" si="95">M$97/M99</f>
+        <f t="shared" ref="M109" si="96">M$97/M99</f>
         <v>3.6325674199223896</v>
       </c>
       <c r="N109">
-        <f t="shared" ref="N109:N115" si="96">MAX(Q120-M109,M109-R120)</f>
+        <f t="shared" ref="N109:N115" si="97">MAX(Q120-M109,M109-R120)</f>
         <v>7.394265624055274E-2</v>
       </c>
       <c r="P109">
@@ -7651,51 +7651,51 @@
         <v>8</v>
       </c>
       <c r="C110">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.4870260208675092</v>
       </c>
       <c r="D110">
-        <f>MAX(B121-C110,C110-C121)</f>
+        <f t="shared" si="89"/>
         <v>0.21191368967305912</v>
       </c>
       <c r="E110">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>5.3496458060425072</v>
       </c>
       <c r="F110">
+        <f t="shared" si="93"/>
+        <v>0.24952822841845457</v>
+      </c>
+      <c r="G110">
         <f t="shared" si="92"/>
-        <v>0.24952822841845457</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="91"/>
         <v>5.47769700721717</v>
       </c>
       <c r="H110">
-        <f t="shared" ref="H110:H115" si="97">MAX(H121-G110,G110-I121)</f>
+        <f t="shared" ref="H110:H115" si="98">MAX(H121-G110,G110-I121)</f>
         <v>0.42665437395244687</v>
       </c>
       <c r="I110">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>5.6191742023416946</v>
       </c>
       <c r="J110">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.40962045357237553</v>
       </c>
       <c r="K110">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>5.7373477101222159</v>
       </c>
       <c r="L110">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.32735645199990593</v>
       </c>
       <c r="M110">
-        <f t="shared" ref="L110:N110" si="98">M$97/M100</f>
+        <f t="shared" ref="M110" si="99">M$97/M100</f>
         <v>5.8136203941352944</v>
       </c>
       <c r="N110">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0.28359369987798022</v>
       </c>
       <c r="P110">
@@ -7707,51 +7707,51 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.4523852751449717</v>
       </c>
       <c r="D111">
-        <f>MAX(B122-C111,C111-C122)</f>
+        <f t="shared" si="89"/>
         <v>0.37474410886691656</v>
       </c>
       <c r="E111">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>5.7674135961958015</v>
       </c>
       <c r="F111">
+        <f t="shared" si="93"/>
+        <v>0.38374785198588857</v>
+      </c>
+      <c r="G111">
         <f t="shared" si="92"/>
-        <v>0.38374785198588857</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="91"/>
         <v>6.1324153126014922</v>
       </c>
       <c r="H111">
+        <f t="shared" si="98"/>
+        <v>0.32733316238531529</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="92"/>
+        <v>6.2056986192112475</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="94"/>
+        <v>0.56167464547027546</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="92"/>
+        <v>6.2329585941401708</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="95"/>
+        <v>0.46569028966423875</v>
+      </c>
+      <c r="M111">
+        <f t="shared" ref="M111" si="100">M$97/M101</f>
+        <v>6.5393386548524237</v>
+      </c>
+      <c r="N111">
         <f t="shared" si="97"/>
-        <v>0.32733316238531529</v>
-      </c>
-      <c r="I111">
-        <f t="shared" si="91"/>
-        <v>6.2056986192112475</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="93"/>
-        <v>0.56167464547027546</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="91"/>
-        <v>6.2329585941401708</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="94"/>
-        <v>0.46569028966423875</v>
-      </c>
-      <c r="M111">
-        <f t="shared" ref="L111:N111" si="99">M$97/M101</f>
-        <v>6.5393386548524237</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="96"/>
         <v>0.2956934543796601</v>
       </c>
       <c r="P111">
@@ -7763,51 +7763,51 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.6738356969524153</v>
       </c>
       <c r="D112">
-        <f>MAX(B123-C112,C112-C123)</f>
+        <f t="shared" si="89"/>
         <v>0.25889006096380163</v>
       </c>
       <c r="E112">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6.2377019814669064</v>
       </c>
       <c r="F112">
+        <f t="shared" si="93"/>
+        <v>0.40420611639402981</v>
+      </c>
+      <c r="G112">
         <f t="shared" si="92"/>
-        <v>0.40420611639402981</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="91"/>
         <v>6.6608492780411757</v>
       </c>
       <c r="H112">
+        <f t="shared" si="98"/>
+        <v>0.47277645127549839</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="92"/>
+        <v>6.5537990056109692</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="94"/>
+        <v>0.58131305486515306</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="92"/>
+        <v>6.3837012359205483</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="95"/>
+        <v>0.57858200955413075</v>
+      </c>
+      <c r="M112">
+        <f t="shared" ref="M112" si="101">M$97/M102</f>
+        <v>6.8889102253985941</v>
+      </c>
+      <c r="N112">
         <f t="shared" si="97"/>
-        <v>0.47277645127549839</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="91"/>
-        <v>6.5537990056109692</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="93"/>
-        <v>0.58131305486515306</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="91"/>
-        <v>6.3837012359205483</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="94"/>
-        <v>0.57858200955413075</v>
-      </c>
-      <c r="M112">
-        <f t="shared" ref="L112:N112" si="100">M$97/M102</f>
-        <v>6.8889102253985941</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="96"/>
         <v>0.36807605548073141</v>
       </c>
       <c r="P112">
@@ -7819,51 +7819,51 @@
         <v>14</v>
       </c>
       <c r="C113">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.6359738847575076</v>
       </c>
       <c r="D113">
-        <f>MAX(B124-C113,C113-C124)</f>
+        <f t="shared" si="89"/>
         <v>0.22318830284010982</v>
       </c>
       <c r="E113">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6.4108059325444415</v>
       </c>
       <c r="F113">
+        <f t="shared" si="93"/>
+        <v>0.56138829726021822</v>
+      </c>
+      <c r="G113">
         <f t="shared" si="92"/>
-        <v>0.56138829726021822</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="91"/>
         <v>6.5990099745260258</v>
       </c>
       <c r="H113">
+        <f t="shared" si="98"/>
+        <v>0.60819234494305174</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="92"/>
+        <v>6.7985843665304548</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="94"/>
+        <v>0.81990017759615696</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="92"/>
+        <v>6.9444790756070791</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="95"/>
+        <v>0.84795364741228418</v>
+      </c>
+      <c r="M113">
+        <f t="shared" ref="M113" si="102">M$97/M103</f>
+        <v>6.9569757713572713</v>
+      </c>
+      <c r="N113">
         <f t="shared" si="97"/>
-        <v>0.60819234494305174</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="91"/>
-        <v>6.7985843665304548</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="93"/>
-        <v>0.81990017759615696</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="91"/>
-        <v>6.9444790756070791</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="94"/>
-        <v>0.84795364741228418</v>
-      </c>
-      <c r="M113">
-        <f t="shared" ref="L113:N113" si="101">M$97/M103</f>
-        <v>6.9569757713572713</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="96"/>
         <v>0.6351817076352404</v>
       </c>
       <c r="P113">
@@ -7875,51 +7875,51 @@
         <v>15</v>
       </c>
       <c r="C114">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.5334762435144715</v>
       </c>
       <c r="D114">
-        <f>MAX(B125-C114,C114-C125)</f>
+        <f t="shared" si="89"/>
         <v>0.32570327541988497</v>
       </c>
       <c r="E114">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6.6965825697812758</v>
       </c>
       <c r="F114">
+        <f t="shared" si="93"/>
+        <v>1.1448632059769395</v>
+      </c>
+      <c r="G114">
         <f t="shared" si="92"/>
-        <v>1.1448632059769395</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="91"/>
         <v>6.9034762142242245</v>
       </c>
       <c r="H114">
+        <f t="shared" si="98"/>
+        <v>0.78439108914158062</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="92"/>
+        <v>7.2627233044611224</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="94"/>
+        <v>0.6466091915577632</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="92"/>
+        <v>7.1754868805018202</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="95"/>
+        <v>0.86554021890540689</v>
+      </c>
+      <c r="M114">
+        <f t="shared" ref="M114" si="103">M$97/M104</f>
+        <v>7.227999990045066</v>
+      </c>
+      <c r="N114">
         <f t="shared" si="97"/>
-        <v>0.78439108914158062</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="91"/>
-        <v>7.2627233044611224</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="93"/>
-        <v>0.6466091915577632</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="91"/>
-        <v>7.1754868805018202</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="94"/>
-        <v>0.86554021890540689</v>
-      </c>
-      <c r="M114">
-        <f t="shared" ref="L114:N114" si="102">M$97/M104</f>
-        <v>7.227999990045066</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="96"/>
         <v>0.56675819176541165</v>
       </c>
     </row>
@@ -7928,51 +7928,51 @@
         <v>16</v>
       </c>
       <c r="C115">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3.5283969412745737</v>
       </c>
       <c r="D115">
-        <f>MAX(B126-C115,C115-C126)</f>
+        <f t="shared" si="89"/>
         <v>0.23569347757892034</v>
       </c>
       <c r="E115">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6.8054687286501441</v>
       </c>
       <c r="F115">
+        <f t="shared" si="93"/>
+        <v>0.6109170249804956</v>
+      </c>
+      <c r="G115">
         <f t="shared" si="92"/>
-        <v>0.6109170249804956</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="91"/>
         <v>6.8782873967486511</v>
       </c>
       <c r="H115">
+        <f t="shared" si="98"/>
+        <v>0.73219294327472983</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="92"/>
+        <v>6.851378628010516</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="94"/>
+        <v>0.63105942638020807</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="92"/>
+        <v>7.2004342754189103</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="95"/>
+        <v>0.5452057351135613</v>
+      </c>
+      <c r="M115">
+        <f t="shared" ref="M115" si="104">M$97/M105</f>
+        <v>7.3188155382928972</v>
+      </c>
+      <c r="N115">
         <f t="shared" si="97"/>
-        <v>0.73219294327472983</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="91"/>
-        <v>6.851378628010516</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="93"/>
-        <v>0.63105942638020807</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="91"/>
-        <v>7.2004342754189103</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="94"/>
-        <v>0.5452057351135613</v>
-      </c>
-      <c r="M115">
-        <f t="shared" ref="L115:N115" si="103">M$97/M105</f>
-        <v>7.3188155382928972</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="96"/>
         <v>0.63593425951304461</v>
       </c>
     </row>
@@ -8066,351 +8066,351 @@
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B120">
-        <f t="shared" ref="B120:B128" si="104">(C$97+D$97)/(C99-D99)</f>
+        <f t="shared" ref="B120:B126" si="105">(C$97+D$97)/(C99-D99)</f>
         <v>3.1137945679675152</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:C128" si="105">(C$97-D$97)/(C99+D99)</f>
+        <f t="shared" ref="C120:C126" si="106">(C$97-D$97)/(C99+D99)</f>
         <v>2.8253265902968141</v>
       </c>
       <c r="E120">
-        <f t="shared" ref="E120:E126" si="106">(E$97+F$97)/(E99-F99)</f>
+        <f t="shared" ref="E120:E126" si="107">(E$97+F$97)/(E99-F99)</f>
         <v>3.6667241850589236</v>
       </c>
       <c r="F120">
-        <f t="shared" ref="F120:F126" si="107">(E$97-F$97)/(E99-+F99)</f>
+        <f t="shared" ref="F120:F126" si="108">(E$97-F$97)/(E99-+F99)</f>
         <v>3.612018237501823</v>
       </c>
       <c r="H120">
-        <f t="shared" ref="H120:H126" si="108">(G$97+H$97)/(G99-H99)</f>
+        <f t="shared" ref="H120:H126" si="109">(G$97+H$97)/(G99-H99)</f>
         <v>3.6793887850088258</v>
       </c>
       <c r="I120">
-        <f t="shared" ref="I120:I126" si="109">(G$97-H$97)/(G99+H99)</f>
+        <f t="shared" ref="I120:I126" si="110">(G$97-H$97)/(G99+H99)</f>
         <v>3.4529463034151431</v>
       </c>
       <c r="K120">
-        <f t="shared" ref="K120:K126" si="110">(I$97+J$97)/(I99-J99)</f>
+        <f t="shared" ref="K120:K126" si="111">(I$97+J$97)/(I99-J99)</f>
         <v>3.6589184253532219</v>
       </c>
       <c r="L120">
-        <f t="shared" ref="L120:L126" si="111">(I$97-J$97)/(I99+J99)</f>
+        <f t="shared" ref="L120:L126" si="112">(I$97-J$97)/(I99+J99)</f>
         <v>3.438762704624664</v>
       </c>
       <c r="N120">
-        <f t="shared" ref="N120:N126" si="112">(K$97+L$97)/(K99-L99)</f>
+        <f t="shared" ref="N120:N126" si="113">(K$97+L$97)/(K99-L99)</f>
         <v>3.7352394098834609</v>
       </c>
       <c r="O120">
-        <f t="shared" ref="O120:O126" si="113">(K$97-L$97)/(K99+L99)</f>
+        <f t="shared" ref="O120:O126" si="114">(K$97-L$97)/(K99+L99)</f>
         <v>3.4903624406337537</v>
       </c>
       <c r="Q120">
-        <f t="shared" ref="Q120:Q126" si="114">(M$97+N$97)/(M99-N99)</f>
+        <f t="shared" ref="Q120:Q126" si="115">(M$97+N$97)/(M99-N99)</f>
         <v>3.7065100761629424</v>
       </c>
       <c r="R120">
-        <f t="shared" ref="R120:R126" si="115">(M$97-N$97)/(M99+N99)</f>
+        <f t="shared" ref="R120:R126" si="116">(M$97-N$97)/(M99+N99)</f>
         <v>3.5605159619827944</v>
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B121">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.6989397105405684</v>
       </c>
       <c r="C121">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.2933698440097676</v>
       </c>
       <c r="E121">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>5.5991740344609617</v>
       </c>
       <c r="F121">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>5.5156367664165202</v>
       </c>
       <c r="H121">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>5.9043513811696169</v>
       </c>
       <c r="I121">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>5.1051260535203111</v>
       </c>
       <c r="K121">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>6.0287946559140702</v>
       </c>
       <c r="L121">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5.2581704428984493</v>
       </c>
       <c r="N121">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>6.0647041621221218</v>
       </c>
       <c r="O121">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>5.4377409468307771</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>6.0972140940132746</v>
       </c>
       <c r="R121">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>5.5516874552591533</v>
       </c>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B122">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.8271293840118883</v>
       </c>
       <c r="C122">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.1371030127357336</v>
       </c>
       <c r="E122">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6.1511614481816901</v>
       </c>
       <c r="F122">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6.0593887653683307</v>
       </c>
       <c r="H122">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>6.4597484749868075</v>
       </c>
       <c r="I122">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>5.8338573094644977</v>
       </c>
       <c r="K122">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>6.767373264681523</v>
       </c>
       <c r="L122">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5.7255172162887256</v>
       </c>
       <c r="N122">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>6.6986488838044096</v>
       </c>
       <c r="O122">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>5.8199571506030328</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>6.8350321092320838</v>
       </c>
       <c r="R122">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>6.2644334727321613</v>
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B123">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.9327257579162169</v>
       </c>
       <c r="C123">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.4413182019112196</v>
       </c>
       <c r="E123">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6.6419080978609362</v>
       </c>
       <c r="F123">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6.542813686134731</v>
       </c>
       <c r="H123">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7.133625729316674</v>
       </c>
       <c r="I123">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>6.242984027528359</v>
       </c>
       <c r="K123">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>7.1351120604761222</v>
       </c>
       <c r="L123">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>6.05529303363077</v>
       </c>
       <c r="N123">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>6.962283245474679</v>
       </c>
       <c r="O123">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>5.8845328797750192</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>7.2569862808793255</v>
       </c>
       <c r="R123">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>6.5518221884433396</v>
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B124">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.8591621875976174</v>
       </c>
       <c r="C124">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.4322391719960392</v>
       </c>
       <c r="E124">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6.9721942298046597</v>
       </c>
       <c r="F124">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6.8681720910662687</v>
       </c>
       <c r="H124">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7.2072023194690775</v>
       </c>
       <c r="I124">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>6.0807695380045486</v>
       </c>
       <c r="K124">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>7.6184845441266118</v>
       </c>
       <c r="L124">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>6.1317710794394076</v>
       </c>
       <c r="N124">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>7.7924327230193633</v>
       </c>
       <c r="O124">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>6.2502277632549568</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>7.5921574789925117</v>
       </c>
       <c r="R124">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>6.4127523634511343</v>
       </c>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B125">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.8591795189343565</v>
       </c>
       <c r="C125">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.2517941265782091</v>
       </c>
       <c r="E125">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7.8414457757582152</v>
       </c>
       <c r="F125">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>7.7244547778728414</v>
       </c>
       <c r="H125">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7.6878673033658051</v>
       </c>
       <c r="I125">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>6.2585648281239239</v>
       </c>
       <c r="K125">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>7.9093324960188855</v>
       </c>
       <c r="L125">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>6.7085370070470001</v>
       </c>
       <c r="N125">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>8.041027099407227</v>
       </c>
       <c r="O125">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>6.4651326344395939</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>7.7947581818104776</v>
       </c>
       <c r="R125">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>6.7315130542910824</v>
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B126">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.764090418853494</v>
       </c>
       <c r="C126">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.3153266356819229</v>
       </c>
       <c r="E126">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7.4163857536306397</v>
       </c>
       <c r="F126">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>7.3057364684309061</v>
       </c>
       <c r="H126">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7.6104803400233809</v>
       </c>
       <c r="I126">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>6.2691431152990269</v>
       </c>
       <c r="K126">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>7.4824380543907241</v>
       </c>
       <c r="L126">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>6.3133414008206072</v>
       </c>
       <c r="N126">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>7.7456400105324716</v>
       </c>
       <c r="O126">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>6.7177649229028988</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>7.9547497978059418</v>
       </c>
       <c r="R126">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>6.7698270413848487</v>
       </c>
     </row>
